--- a/CLEAN/FebruarySales2024_clean.xlsx
+++ b/CLEAN/FebruarySales2024_clean.xlsx
@@ -528,7 +528,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ORD_0000001</t>
+          <t>ORD_0005210</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -598,7 +598,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ORD_0000002</t>
+          <t>ORD_0005211</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -668,7 +668,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ORD_0000003</t>
+          <t>ORD_0005212</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -738,7 +738,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ORD_0000004</t>
+          <t>ORD_0005213</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -808,7 +808,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ORD_0000005</t>
+          <t>ORD_0005214</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -878,7 +878,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ORD_0000006</t>
+          <t>ORD_0005215</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -952,7 +952,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ORD_0000007</t>
+          <t>ORD_0005216</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1022,7 +1022,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ORD_0000008</t>
+          <t>ORD_0005217</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1096,7 +1096,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORD_0000009</t>
+          <t>ORD_0005218</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1170,7 +1170,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ORD_0000010</t>
+          <t>ORD_0005219</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1240,7 +1240,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ORD_0000011</t>
+          <t>ORD_0005220</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1314,7 +1314,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ORD_0000012</t>
+          <t>ORD_0005221</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1384,7 +1384,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ORD_0000013</t>
+          <t>ORD_0005222</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1454,7 +1454,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ORD_0000014</t>
+          <t>ORD_0005223</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1524,7 +1524,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ORD_0000015</t>
+          <t>ORD_0005224</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1594,7 +1594,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ORD_0000016</t>
+          <t>ORD_0005225</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1664,7 +1664,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ORD_0000017</t>
+          <t>ORD_0005226</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1734,7 +1734,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ORD_0000018</t>
+          <t>ORD_0005227</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1804,7 +1804,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ORD_0000019</t>
+          <t>ORD_0005228</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1874,7 +1874,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ORD_0000020</t>
+          <t>ORD_0005229</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1944,7 +1944,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ORD_0000021</t>
+          <t>ORD_0005230</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2014,7 +2014,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ORD_0000022</t>
+          <t>ORD_0005231</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2084,7 +2084,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ORD_0000023</t>
+          <t>ORD_0005232</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2154,7 +2154,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ORD_0000024</t>
+          <t>ORD_0005233</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2224,7 +2224,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ORD_0000025</t>
+          <t>ORD_0005234</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2294,7 +2294,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ORD_0000026</t>
+          <t>ORD_0005235</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2364,7 +2364,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ORD_0000027</t>
+          <t>ORD_0005236</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2434,7 +2434,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ORD_0000028</t>
+          <t>ORD_0005237</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2508,7 +2508,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ORD_0000029</t>
+          <t>ORD_0005238</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2578,7 +2578,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ORD_0000030</t>
+          <t>ORD_0005239</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2648,7 +2648,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ORD_0000031</t>
+          <t>ORD_0005240</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2718,7 +2718,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ORD_0000032</t>
+          <t>ORD_0005241</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2788,7 +2788,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ORD_0000033</t>
+          <t>ORD_0005242</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2862,7 +2862,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ORD_0000034</t>
+          <t>ORD_0005243</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2932,7 +2932,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ORD_0000035</t>
+          <t>ORD_0005244</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -3002,7 +3002,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ORD_0000036</t>
+          <t>ORD_0005245</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -3072,7 +3072,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ORD_0000037</t>
+          <t>ORD_0005246</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3142,7 +3142,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ORD_0000038</t>
+          <t>ORD_0005247</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3212,7 +3212,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ORD_0000039</t>
+          <t>ORD_0005248</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3282,7 +3282,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ORD_0000040</t>
+          <t>ORD_0005249</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3352,7 +3352,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ORD_0000041</t>
+          <t>ORD_0005250</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3422,7 +3422,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ORD_0000042</t>
+          <t>ORD_0005251</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3492,7 +3492,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ORD_0000043</t>
+          <t>ORD_0005252</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3562,7 +3562,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ORD_0000044</t>
+          <t>ORD_0005253</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3632,7 +3632,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ORD_0000045</t>
+          <t>ORD_0005254</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3702,7 +3702,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ORD_0000046</t>
+          <t>ORD_0005255</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3772,7 +3772,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ORD_0000047</t>
+          <t>ORD_0005256</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3842,7 +3842,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ORD_0000048</t>
+          <t>ORD_0005257</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3916,7 +3916,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ORD_0000049</t>
+          <t>ORD_0005258</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3986,7 +3986,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ORD_0000050</t>
+          <t>ORD_0005259</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -4060,7 +4060,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ORD_0000051</t>
+          <t>ORD_0005260</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -4130,7 +4130,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ORD_0000052</t>
+          <t>ORD_0005261</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -4200,7 +4200,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ORD_0000053</t>
+          <t>ORD_0005262</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -4270,7 +4270,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ORD_0000054</t>
+          <t>ORD_0005263</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -4340,7 +4340,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ORD_0000055</t>
+          <t>ORD_0005264</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -4410,7 +4410,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ORD_0000056</t>
+          <t>ORD_0005265</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -4480,7 +4480,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ORD_0000057</t>
+          <t>ORD_0005266</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -4550,7 +4550,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ORD_0000058</t>
+          <t>ORD_0005267</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -4620,7 +4620,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ORD_0000059</t>
+          <t>ORD_0005268</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -4690,7 +4690,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ORD_0000060</t>
+          <t>ORD_0005269</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -4760,7 +4760,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ORD_0000061</t>
+          <t>ORD_0005270</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -4830,7 +4830,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ORD_0000062</t>
+          <t>ORD_0005271</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -4900,7 +4900,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ORD_0000063</t>
+          <t>ORD_0005272</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -4970,7 +4970,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ORD_0000064</t>
+          <t>ORD_0005273</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -5040,7 +5040,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ORD_0000065</t>
+          <t>ORD_0005274</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -5110,7 +5110,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ORD_0000066</t>
+          <t>ORD_0005275</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -5180,7 +5180,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ORD_0000067</t>
+          <t>ORD_0005276</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -5254,7 +5254,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ORD_0000068</t>
+          <t>ORD_0005277</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -5324,7 +5324,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ORD_0000069</t>
+          <t>ORD_0005278</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -5394,7 +5394,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ORD_0000070</t>
+          <t>ORD_0005279</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -5464,7 +5464,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ORD_0000071</t>
+          <t>ORD_0005280</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -5534,7 +5534,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ORD_0000072</t>
+          <t>ORD_0005281</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -5604,7 +5604,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ORD_0000073</t>
+          <t>ORD_0005282</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -5674,7 +5674,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ORD_0000074</t>
+          <t>ORD_0005283</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -5744,7 +5744,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ORD_0000075</t>
+          <t>ORD_0005284</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -5814,7 +5814,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ORD_0000076</t>
+          <t>ORD_0005285</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -5884,7 +5884,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ORD_0000077</t>
+          <t>ORD_0005286</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -5954,7 +5954,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ORD_0000078</t>
+          <t>ORD_0005287</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -6024,7 +6024,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ORD_0000079</t>
+          <t>ORD_0005288</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -6094,7 +6094,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ORD_0000080</t>
+          <t>ORD_0005289</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -6164,7 +6164,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ORD_0000081</t>
+          <t>ORD_0005290</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -6234,7 +6234,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ORD_0000082</t>
+          <t>ORD_0005291</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -6304,7 +6304,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ORD_0000083</t>
+          <t>ORD_0005292</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -6378,7 +6378,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ORD_0000084</t>
+          <t>ORD_0005293</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -6448,7 +6448,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ORD_0000085</t>
+          <t>ORD_0005294</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -6518,7 +6518,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ORD_0000086</t>
+          <t>ORD_0005295</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -6588,7 +6588,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ORD_0000087</t>
+          <t>ORD_0005296</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -6658,7 +6658,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ORD_0000088</t>
+          <t>ORD_0005297</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -6728,7 +6728,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ORD_0000089</t>
+          <t>ORD_0005298</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -6798,7 +6798,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ORD_0000090</t>
+          <t>ORD_0005299</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -6868,7 +6868,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ORD_0000091</t>
+          <t>ORD_0005300</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -6938,7 +6938,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ORD_0000092</t>
+          <t>ORD_0005301</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -7008,7 +7008,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ORD_0000093</t>
+          <t>ORD_0005302</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -7078,7 +7078,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ORD_0000094</t>
+          <t>ORD_0005303</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -7148,7 +7148,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ORD_0000095</t>
+          <t>ORD_0005304</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -7218,7 +7218,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ORD_0000096</t>
+          <t>ORD_0005305</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -7288,7 +7288,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ORD_0000097</t>
+          <t>ORD_0005306</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -7362,7 +7362,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ORD_0000098</t>
+          <t>ORD_0005307</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -7432,7 +7432,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ORD_0000099</t>
+          <t>ORD_0005308</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -7506,7 +7506,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ORD_0000100</t>
+          <t>ORD_0005309</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -7576,7 +7576,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ORD_0000101</t>
+          <t>ORD_0005310</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -7646,7 +7646,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ORD_0000102</t>
+          <t>ORD_0005311</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -7716,7 +7716,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ORD_0000103</t>
+          <t>ORD_0005312</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -7786,7 +7786,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ORD_0000104</t>
+          <t>ORD_0005313</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -7860,7 +7860,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ORD_0000105</t>
+          <t>ORD_0005314</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -7930,7 +7930,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ORD_0000106</t>
+          <t>ORD_0005315</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -8000,7 +8000,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ORD_0000107</t>
+          <t>ORD_0005316</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -8070,7 +8070,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ORD_0000108</t>
+          <t>ORD_0005317</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -8140,7 +8140,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ORD_0000109</t>
+          <t>ORD_0005318</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -8210,7 +8210,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ORD_0000110</t>
+          <t>ORD_0005319</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -8280,7 +8280,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ORD_0000111</t>
+          <t>ORD_0005320</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -8350,7 +8350,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ORD_0000112</t>
+          <t>ORD_0005321</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -8424,7 +8424,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ORD_0000113</t>
+          <t>ORD_0005322</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -8494,7 +8494,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ORD_0000114</t>
+          <t>ORD_0005323</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -8564,7 +8564,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ORD_0000115</t>
+          <t>ORD_0005324</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -8634,7 +8634,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ORD_0000116</t>
+          <t>ORD_0005325</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -8704,7 +8704,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ORD_0000117</t>
+          <t>ORD_0005326</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -8778,7 +8778,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ORD_0000118</t>
+          <t>ORD_0005327</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -8848,7 +8848,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ORD_0000119</t>
+          <t>ORD_0005328</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -8918,7 +8918,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ORD_0000120</t>
+          <t>ORD_0005329</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -8988,7 +8988,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ORD_0000121</t>
+          <t>ORD_0005330</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -9058,7 +9058,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ORD_0000122</t>
+          <t>ORD_0005331</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -9128,7 +9128,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ORD_0000123</t>
+          <t>ORD_0005332</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -9198,7 +9198,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ORD_0000124</t>
+          <t>ORD_0005333</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -9268,7 +9268,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ORD_0000125</t>
+          <t>ORD_0005334</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -9338,7 +9338,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ORD_0000126</t>
+          <t>ORD_0005335</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -9412,7 +9412,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ORD_0000127</t>
+          <t>ORD_0005336</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -9486,7 +9486,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ORD_0000128</t>
+          <t>ORD_0005337</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -9556,7 +9556,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ORD_0000129</t>
+          <t>ORD_0005338</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -9630,7 +9630,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ORD_0000130</t>
+          <t>ORD_0005339</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -9700,7 +9700,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ORD_0000131</t>
+          <t>ORD_0005340</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -9770,7 +9770,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ORD_0000132</t>
+          <t>ORD_0005341</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -9840,7 +9840,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ORD_0000133</t>
+          <t>ORD_0005342</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -9914,7 +9914,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ORD_0000134</t>
+          <t>ORD_0005343</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -9984,7 +9984,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ORD_0000135</t>
+          <t>ORD_0005344</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -10054,7 +10054,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ORD_0000136</t>
+          <t>ORD_0005345</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -10124,7 +10124,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ORD_0000137</t>
+          <t>ORD_0005346</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -10198,7 +10198,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ORD_0000138</t>
+          <t>ORD_0005347</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -10268,7 +10268,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ORD_0000139</t>
+          <t>ORD_0005348</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -10342,7 +10342,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ORD_0000140</t>
+          <t>ORD_0005349</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -10412,7 +10412,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ORD_0000141</t>
+          <t>ORD_0005350</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -10482,7 +10482,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ORD_0000142</t>
+          <t>ORD_0005351</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -10552,7 +10552,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ORD_0000143</t>
+          <t>ORD_0005352</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -10622,7 +10622,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ORD_0000144</t>
+          <t>ORD_0005353</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -10692,7 +10692,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ORD_0000145</t>
+          <t>ORD_0005354</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -10762,7 +10762,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ORD_0000146</t>
+          <t>ORD_0005355</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -10836,7 +10836,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ORD_0000147</t>
+          <t>ORD_0005356</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -10906,7 +10906,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ORD_0000148</t>
+          <t>ORD_0005357</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -10976,7 +10976,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ORD_0000149</t>
+          <t>ORD_0005358</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -11046,7 +11046,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ORD_0000150</t>
+          <t>ORD_0005359</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -11116,7 +11116,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ORD_0000151</t>
+          <t>ORD_0005360</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -11186,7 +11186,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ORD_0000152</t>
+          <t>ORD_0005361</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -11256,7 +11256,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ORD_0000153</t>
+          <t>ORD_0005362</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -11326,7 +11326,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ORD_0000154</t>
+          <t>ORD_0005363</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -11396,7 +11396,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ORD_0000155</t>
+          <t>ORD_0005364</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -11470,7 +11470,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ORD_0000156</t>
+          <t>ORD_0005365</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -11540,7 +11540,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ORD_0000157</t>
+          <t>ORD_0005366</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -11610,7 +11610,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ORD_0000158</t>
+          <t>ORD_0005367</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -11680,7 +11680,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ORD_0000159</t>
+          <t>ORD_0005368</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -11750,7 +11750,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ORD_0000160</t>
+          <t>ORD_0005369</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -11824,7 +11824,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ORD_0000161</t>
+          <t>ORD_0005370</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -11894,7 +11894,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ORD_0000162</t>
+          <t>ORD_0005371</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -11964,7 +11964,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ORD_0000163</t>
+          <t>ORD_0005372</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -12038,7 +12038,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ORD_0000164</t>
+          <t>ORD_0005373</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -12108,7 +12108,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ORD_0000165</t>
+          <t>ORD_0005374</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -12178,7 +12178,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ORD_0000166</t>
+          <t>ORD_0005375</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -12248,7 +12248,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ORD_0000167</t>
+          <t>ORD_0005376</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -12322,7 +12322,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ORD_0000168</t>
+          <t>ORD_0005377</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -12396,7 +12396,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ORD_0000169</t>
+          <t>ORD_0005378</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -12466,7 +12466,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ORD_0000170</t>
+          <t>ORD_0005379</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -12536,7 +12536,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ORD_0000171</t>
+          <t>ORD_0005380</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -12606,7 +12606,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ORD_0000172</t>
+          <t>ORD_0005381</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -12676,7 +12676,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ORD_0000173</t>
+          <t>ORD_0005382</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -12746,7 +12746,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ORD_0000174</t>
+          <t>ORD_0005383</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -12816,7 +12816,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ORD_0000175</t>
+          <t>ORD_0005384</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -12890,7 +12890,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ORD_0000176</t>
+          <t>ORD_0005385</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -12960,7 +12960,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ORD_0000177</t>
+          <t>ORD_0005386</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -13030,7 +13030,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ORD_0000178</t>
+          <t>ORD_0005387</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -13104,7 +13104,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ORD_0000179</t>
+          <t>ORD_0005388</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -13174,7 +13174,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ORD_0000180</t>
+          <t>ORD_0005389</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -13244,7 +13244,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ORD_0000181</t>
+          <t>ORD_0005390</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -13314,7 +13314,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ORD_0000182</t>
+          <t>ORD_0005391</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -13384,7 +13384,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ORD_0000183</t>
+          <t>ORD_0005392</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -13454,7 +13454,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ORD_0000184</t>
+          <t>ORD_0005393</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -13528,7 +13528,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ORD_0000185</t>
+          <t>ORD_0005394</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -13598,7 +13598,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ORD_0000186</t>
+          <t>ORD_0005395</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -13668,7 +13668,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ORD_0000187</t>
+          <t>ORD_0005396</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -13742,7 +13742,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ORD_0000188</t>
+          <t>ORD_0005397</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -13812,7 +13812,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ORD_0000189</t>
+          <t>ORD_0005398</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -13882,7 +13882,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ORD_0000190</t>
+          <t>ORD_0005399</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -13956,7 +13956,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ORD_0000191</t>
+          <t>ORD_0005400</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -14026,7 +14026,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ORD_0000192</t>
+          <t>ORD_0005401</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -14096,7 +14096,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ORD_0000193</t>
+          <t>ORD_0005402</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -14166,7 +14166,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ORD_0000194</t>
+          <t>ORD_0005403</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -14236,7 +14236,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ORD_0000195</t>
+          <t>ORD_0005404</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -14306,7 +14306,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ORD_0000196</t>
+          <t>ORD_0005405</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -14380,7 +14380,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ORD_0000197</t>
+          <t>ORD_0005406</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -14450,7 +14450,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ORD_0000198</t>
+          <t>ORD_0005407</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -14520,7 +14520,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ORD_0000199</t>
+          <t>ORD_0005408</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -14590,7 +14590,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ORD_0000200</t>
+          <t>ORD_0005409</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -14660,7 +14660,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ORD_0000201</t>
+          <t>ORD_0005410</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -14730,7 +14730,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ORD_0000202</t>
+          <t>ORD_0005411</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -14800,7 +14800,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ORD_0000203</t>
+          <t>ORD_0005412</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -14870,7 +14870,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ORD_0000204</t>
+          <t>ORD_0005413</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -14940,7 +14940,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ORD_0000205</t>
+          <t>ORD_0005414</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -15014,7 +15014,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ORD_0000206</t>
+          <t>ORD_0005415</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -15084,7 +15084,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ORD_0000207</t>
+          <t>ORD_0005416</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -15154,7 +15154,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ORD_0000208</t>
+          <t>ORD_0005417</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -15224,7 +15224,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>ORD_0000209</t>
+          <t>ORD_0005418</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -15294,7 +15294,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ORD_0000210</t>
+          <t>ORD_0005419</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -15364,7 +15364,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ORD_0000211</t>
+          <t>ORD_0005420</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -15434,7 +15434,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ORD_0000212</t>
+          <t>ORD_0005421</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -15504,7 +15504,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ORD_0000213</t>
+          <t>ORD_0005422</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -15578,7 +15578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ORD_0000214</t>
+          <t>ORD_0005423</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -15652,7 +15652,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ORD_0000215</t>
+          <t>ORD_0005424</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -15722,7 +15722,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ORD_0000216</t>
+          <t>ORD_0005425</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -15792,7 +15792,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ORD_0000217</t>
+          <t>ORD_0005426</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -15866,7 +15866,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ORD_0000218</t>
+          <t>ORD_0005427</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -15936,7 +15936,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ORD_0000219</t>
+          <t>ORD_0005428</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -16006,7 +16006,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ORD_0000220</t>
+          <t>ORD_0005429</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -16076,7 +16076,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ORD_0000221</t>
+          <t>ORD_0005430</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -16146,7 +16146,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ORD_0000222</t>
+          <t>ORD_0005431</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -16220,7 +16220,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ORD_0000223</t>
+          <t>ORD_0005432</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -16290,7 +16290,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ORD_0000224</t>
+          <t>ORD_0005433</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -16360,7 +16360,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ORD_0000225</t>
+          <t>ORD_0005434</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -16430,7 +16430,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ORD_0000226</t>
+          <t>ORD_0005435</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -16500,7 +16500,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ORD_0000227</t>
+          <t>ORD_0005436</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -16570,7 +16570,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ORD_0000228</t>
+          <t>ORD_0005437</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -16644,7 +16644,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ORD_0000229</t>
+          <t>ORD_0005438</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -16714,7 +16714,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ORD_0000230</t>
+          <t>ORD_0005439</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -16788,7 +16788,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ORD_0000231</t>
+          <t>ORD_0005440</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -16858,7 +16858,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ORD_0000232</t>
+          <t>ORD_0005441</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -16928,7 +16928,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ORD_0000233</t>
+          <t>ORD_0005442</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -16998,7 +16998,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ORD_0000234</t>
+          <t>ORD_0005443</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -17068,7 +17068,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ORD_0000235</t>
+          <t>ORD_0005444</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -17138,7 +17138,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ORD_0000236</t>
+          <t>ORD_0005445</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -17208,7 +17208,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ORD_0000237</t>
+          <t>ORD_0005446</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -17278,7 +17278,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ORD_0000238</t>
+          <t>ORD_0005447</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -17348,7 +17348,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ORD_0000239</t>
+          <t>ORD_0005448</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -17418,7 +17418,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ORD_0000240</t>
+          <t>ORD_0005449</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -17488,7 +17488,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ORD_0000241</t>
+          <t>ORD_0005450</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -17558,7 +17558,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ORD_0000242</t>
+          <t>ORD_0005451</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -17628,7 +17628,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ORD_0000243</t>
+          <t>ORD_0005452</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -17698,7 +17698,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ORD_0000244</t>
+          <t>ORD_0005453</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -17768,7 +17768,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ORD_0000245</t>
+          <t>ORD_0005454</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -17838,7 +17838,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ORD_0000246</t>
+          <t>ORD_0005455</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -17908,7 +17908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ORD_0000247</t>
+          <t>ORD_0005456</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -17978,7 +17978,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ORD_0000248</t>
+          <t>ORD_0005457</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -18052,7 +18052,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ORD_0000249</t>
+          <t>ORD_0005458</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -18122,7 +18122,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ORD_0000250</t>
+          <t>ORD_0005459</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -18196,7 +18196,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ORD_0000251</t>
+          <t>ORD_0005460</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -18270,7 +18270,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ORD_0000252</t>
+          <t>ORD_0005461</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -18340,7 +18340,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ORD_0000253</t>
+          <t>ORD_0005462</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -18410,7 +18410,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ORD_0000254</t>
+          <t>ORD_0005463</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -18480,7 +18480,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ORD_0000255</t>
+          <t>ORD_0005464</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -18550,7 +18550,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ORD_0000256</t>
+          <t>ORD_0005465</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -18620,7 +18620,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ORD_0000257</t>
+          <t>ORD_0005466</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -18690,7 +18690,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ORD_0000258</t>
+          <t>ORD_0005467</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -18760,7 +18760,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ORD_0000259</t>
+          <t>ORD_0005468</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -18830,7 +18830,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ORD_0000260</t>
+          <t>ORD_0005469</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -18900,7 +18900,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ORD_0000261</t>
+          <t>ORD_0005470</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -18970,7 +18970,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ORD_0000262</t>
+          <t>ORD_0005471</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -19040,7 +19040,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ORD_0000263</t>
+          <t>ORD_0005472</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -19114,7 +19114,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ORD_0000264</t>
+          <t>ORD_0005473</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -19184,7 +19184,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ORD_0000265</t>
+          <t>ORD_0005474</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -19254,7 +19254,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ORD_0000266</t>
+          <t>ORD_0005475</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -19324,7 +19324,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ORD_0000267</t>
+          <t>ORD_0005476</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -19398,7 +19398,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ORD_0000268</t>
+          <t>ORD_0005477</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -19468,7 +19468,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ORD_0000269</t>
+          <t>ORD_0005478</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -19538,7 +19538,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>ORD_0000270</t>
+          <t>ORD_0005479</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -19608,7 +19608,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>ORD_0000271</t>
+          <t>ORD_0005480</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -19678,7 +19678,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>ORD_0000272</t>
+          <t>ORD_0005481</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -19748,7 +19748,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>ORD_0000273</t>
+          <t>ORD_0005482</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -19818,7 +19818,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ORD_0000274</t>
+          <t>ORD_0005483</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -19888,7 +19888,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>ORD_0000275</t>
+          <t>ORD_0005484</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -19962,7 +19962,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ORD_0000276</t>
+          <t>ORD_0005485</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -20032,7 +20032,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ORD_0000277</t>
+          <t>ORD_0005486</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -20102,7 +20102,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>ORD_0000278</t>
+          <t>ORD_0005487</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -20172,7 +20172,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ORD_0000279</t>
+          <t>ORD_0005488</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -20242,7 +20242,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>ORD_0000280</t>
+          <t>ORD_0005489</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -20312,7 +20312,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ORD_0000281</t>
+          <t>ORD_0005490</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -20382,7 +20382,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ORD_0000282</t>
+          <t>ORD_0005491</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -20452,7 +20452,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ORD_0000283</t>
+          <t>ORD_0005492</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -20522,7 +20522,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>ORD_0000284</t>
+          <t>ORD_0005493</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -20592,7 +20592,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ORD_0000285</t>
+          <t>ORD_0005494</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -20662,7 +20662,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>ORD_0000286</t>
+          <t>ORD_0005495</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -20732,7 +20732,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>ORD_0000287</t>
+          <t>ORD_0005496</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -20802,7 +20802,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>ORD_0000288</t>
+          <t>ORD_0005497</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -20872,7 +20872,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>ORD_0000289</t>
+          <t>ORD_0005498</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -20942,7 +20942,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>ORD_0000290</t>
+          <t>ORD_0005499</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -21012,7 +21012,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ORD_0000291</t>
+          <t>ORD_0005500</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -21082,7 +21082,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>ORD_0000292</t>
+          <t>ORD_0005501</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -21152,7 +21152,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ORD_0000293</t>
+          <t>ORD_0005502</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -21222,7 +21222,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>ORD_0000294</t>
+          <t>ORD_0005503</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -21292,7 +21292,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ORD_0000295</t>
+          <t>ORD_0005504</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -21362,7 +21362,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>ORD_0000296</t>
+          <t>ORD_0005505</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -21432,7 +21432,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>ORD_0000297</t>
+          <t>ORD_0005506</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -21502,7 +21502,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>ORD_0000298</t>
+          <t>ORD_0005507</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -21572,7 +21572,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ORD_0000299</t>
+          <t>ORD_0005508</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -21642,7 +21642,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>ORD_0000300</t>
+          <t>ORD_0005509</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -21712,7 +21712,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ORD_0000301</t>
+          <t>ORD_0005510</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -21786,7 +21786,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>ORD_0000302</t>
+          <t>ORD_0005511</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -21860,7 +21860,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ORD_0000303</t>
+          <t>ORD_0005512</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -21930,7 +21930,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>ORD_0000304</t>
+          <t>ORD_0005513</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -22000,7 +22000,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ORD_0000305</t>
+          <t>ORD_0005514</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -22070,7 +22070,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ORD_0000306</t>
+          <t>ORD_0005515</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -22140,7 +22140,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ORD_0000307</t>
+          <t>ORD_0005516</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -22210,7 +22210,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ORD_0000308</t>
+          <t>ORD_0005517</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -22280,7 +22280,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ORD_0000309</t>
+          <t>ORD_0005518</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -22350,7 +22350,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ORD_0000310</t>
+          <t>ORD_0005519</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -22420,7 +22420,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>ORD_0000311</t>
+          <t>ORD_0005520</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -22490,7 +22490,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>ORD_0000312</t>
+          <t>ORD_0005521</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -22560,7 +22560,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ORD_0000313</t>
+          <t>ORD_0005522</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -22630,7 +22630,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>ORD_0000314</t>
+          <t>ORD_0005523</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -22700,7 +22700,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>ORD_0000315</t>
+          <t>ORD_0005524</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -22770,7 +22770,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ORD_0000316</t>
+          <t>ORD_0005525</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -22840,7 +22840,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>ORD_0000317</t>
+          <t>ORD_0005526</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -22910,7 +22910,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>ORD_0000318</t>
+          <t>ORD_0005527</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -22980,7 +22980,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>ORD_0000319</t>
+          <t>ORD_0005528</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -23050,7 +23050,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>ORD_0000320</t>
+          <t>ORD_0005529</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -23120,7 +23120,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>ORD_0000321</t>
+          <t>ORD_0005530</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -23190,7 +23190,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ORD_0000322</t>
+          <t>ORD_0005531</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -23260,7 +23260,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ORD_0000323</t>
+          <t>ORD_0005532</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -23330,7 +23330,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>ORD_0000324</t>
+          <t>ORD_0005533</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -23400,7 +23400,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ORD_0000325</t>
+          <t>ORD_0005534</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -23474,7 +23474,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>ORD_0000326</t>
+          <t>ORD_0005535</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -23544,7 +23544,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ORD_0000327</t>
+          <t>ORD_0005536</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -23614,7 +23614,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ORD_0000328</t>
+          <t>ORD_0005537</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -23684,7 +23684,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>ORD_0000329</t>
+          <t>ORD_0005538</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -23754,7 +23754,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>ORD_0000330</t>
+          <t>ORD_0005539</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -23824,7 +23824,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>ORD_0000331</t>
+          <t>ORD_0005540</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -23894,7 +23894,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ORD_0000332</t>
+          <t>ORD_0005541</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -23964,7 +23964,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>ORD_0000333</t>
+          <t>ORD_0005542</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -24034,7 +24034,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>ORD_0000334</t>
+          <t>ORD_0005543</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -24104,7 +24104,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>ORD_0000335</t>
+          <t>ORD_0005544</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -24174,7 +24174,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ORD_0000336</t>
+          <t>ORD_0005545</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -24248,7 +24248,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ORD_0000337</t>
+          <t>ORD_0005546</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -24318,7 +24318,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>ORD_0000338</t>
+          <t>ORD_0005547</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -24388,7 +24388,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>ORD_0000339</t>
+          <t>ORD_0005548</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -24458,7 +24458,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>ORD_0000340</t>
+          <t>ORD_0005549</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -24528,7 +24528,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>ORD_0000341</t>
+          <t>ORD_0005550</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -24598,7 +24598,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>ORD_0000342</t>
+          <t>ORD_0005551</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -24668,7 +24668,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>ORD_0000343</t>
+          <t>ORD_0005552</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -24738,7 +24738,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>ORD_0000344</t>
+          <t>ORD_0005553</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -24808,7 +24808,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>ORD_0000345</t>
+          <t>ORD_0005554</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -24878,7 +24878,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>ORD_0000346</t>
+          <t>ORD_0005555</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -24952,7 +24952,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ORD_0000347</t>
+          <t>ORD_0005556</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -25026,7 +25026,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ORD_0000348</t>
+          <t>ORD_0005557</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -25096,7 +25096,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ORD_0000349</t>
+          <t>ORD_0005558</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -25166,7 +25166,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ORD_0000350</t>
+          <t>ORD_0005559</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -25236,7 +25236,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ORD_0000351</t>
+          <t>ORD_0005560</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -25306,7 +25306,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ORD_0000352</t>
+          <t>ORD_0005561</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -25376,7 +25376,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ORD_0000353</t>
+          <t>ORD_0005562</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -25446,7 +25446,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ORD_0000354</t>
+          <t>ORD_0005563</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -25516,7 +25516,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ORD_0000355</t>
+          <t>ORD_0005564</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -25590,7 +25590,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>ORD_0000356</t>
+          <t>ORD_0005565</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -25664,7 +25664,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>ORD_0000357</t>
+          <t>ORD_0005566</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -25734,7 +25734,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>ORD_0000358</t>
+          <t>ORD_0005567</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -25804,7 +25804,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>ORD_0000359</t>
+          <t>ORD_0005568</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -25874,7 +25874,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ORD_0000360</t>
+          <t>ORD_0005569</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -25944,7 +25944,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>ORD_0000361</t>
+          <t>ORD_0005570</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -26018,7 +26018,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ORD_0000362</t>
+          <t>ORD_0005571</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -26088,7 +26088,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>ORD_0000363</t>
+          <t>ORD_0005572</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -26158,7 +26158,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>ORD_0000364</t>
+          <t>ORD_0005573</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -26232,7 +26232,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>ORD_0000365</t>
+          <t>ORD_0005574</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -26302,7 +26302,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>ORD_0000366</t>
+          <t>ORD_0005575</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -26376,7 +26376,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>ORD_0000367</t>
+          <t>ORD_0005576</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -26446,7 +26446,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>ORD_0000368</t>
+          <t>ORD_0005577</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -26516,7 +26516,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>ORD_0000369</t>
+          <t>ORD_0005578</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -26586,7 +26586,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>ORD_0000370</t>
+          <t>ORD_0005579</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -26660,7 +26660,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>ORD_0000371</t>
+          <t>ORD_0005580</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -26730,7 +26730,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ORD_0000372</t>
+          <t>ORD_0005581</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -26800,7 +26800,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ORD_0000373</t>
+          <t>ORD_0005582</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -26870,7 +26870,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>ORD_0000374</t>
+          <t>ORD_0005583</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -26944,7 +26944,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>ORD_0000375</t>
+          <t>ORD_0005584</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -27014,7 +27014,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>ORD_0000376</t>
+          <t>ORD_0005585</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -27084,7 +27084,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>ORD_0000377</t>
+          <t>ORD_0005586</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -27154,7 +27154,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>ORD_0000378</t>
+          <t>ORD_0005587</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -27224,7 +27224,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>ORD_0000379</t>
+          <t>ORD_0005588</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -27294,7 +27294,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ORD_0000380</t>
+          <t>ORD_0005589</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -27364,7 +27364,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>ORD_0000381</t>
+          <t>ORD_0005590</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -27438,7 +27438,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>ORD_0000382</t>
+          <t>ORD_0005591</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -27508,7 +27508,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>ORD_0000383</t>
+          <t>ORD_0005592</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -27578,7 +27578,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>ORD_0000384</t>
+          <t>ORD_0005593</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -27648,7 +27648,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>ORD_0000385</t>
+          <t>ORD_0005594</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -27722,7 +27722,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ORD_0000386</t>
+          <t>ORD_0005595</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -27792,7 +27792,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>ORD_0000387</t>
+          <t>ORD_0005596</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -27866,7 +27866,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>ORD_0000388</t>
+          <t>ORD_0005597</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -27936,7 +27936,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>ORD_0000389</t>
+          <t>ORD_0005598</t>
         </is>
       </c>
       <c r="B390" t="n">
